--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK3/3.QUERIES/students with no group assigned.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK3/3.QUERIES/students with no group assigned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Last.Name</t>
   </si>
@@ -47,6 +47,21 @@
     <t xml:space="preserve">Feedback.Format</t>
   </si>
   <si>
+    <t xml:space="preserve">Coenen_PreviewUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q0036284_previewuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-22 16:48:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mariën_PreviewUser</t>
   </si>
   <si>
@@ -57,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-10-19 13:18:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -449,6 +461,29 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
